--- a/LA.xlsx
+++ b/LA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WIN 10\Desktop\Skripsi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2B20271-2F78-4322-A33C-B72F13A1A265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96336BAC-3CF8-4CFC-B37E-46EE73986BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{87E3A4CF-8BCC-4DE0-8274-C12A05E6E2D3}"/>
+    <workbookView xWindow="14415" yWindow="825" windowWidth="14385" windowHeight="12285" xr2:uid="{87E3A4CF-8BCC-4DE0-8274-C12A05E6E2D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -540,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{258ECD36-D348-4E66-87C7-D1079785706C}">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="A1:B28"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,7 +563,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4">
-        <v>1.76796</v>
+        <v>1767.96</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -571,7 +571,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5">
-        <v>1.3057699999999999</v>
+        <v>1305.77</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -579,7 +579,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5">
-        <v>1.2248800000000002</v>
+        <v>1224.8800000000001</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -587,7 +587,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5">
-        <v>2.71062</v>
+        <v>2710.62</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -595,7 +595,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5">
-        <v>1.4147100000000001</v>
+        <v>1414.71</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -603,7 +603,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5">
-        <v>3.84016</v>
+        <v>3840.16</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -611,7 +611,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5">
-        <v>0.98451999999999995</v>
+        <v>984.52</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -619,7 +619,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5">
-        <v>3.0740700000000003</v>
+        <v>3074.07</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -627,7 +627,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5">
-        <v>2.0401099999999999</v>
+        <v>2040.11</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -635,7 +635,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5">
-        <v>1.6522000000000001</v>
+        <v>1652.2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -643,7 +643,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="5">
-        <v>0.16766999999999999</v>
+        <v>167.67</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -651,7 +651,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5">
-        <v>0.11348999999999999</v>
+        <v>113.49</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -659,7 +659,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="5">
-        <v>0.20661000000000002</v>
+        <v>206.61</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -667,7 +667,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="5">
-        <v>0.11849999999999999</v>
+        <v>118.5</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -675,7 +675,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5">
-        <v>3.9270000000000006E-2</v>
+        <v>39.270000000000003</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -683,7 +683,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5">
-        <v>3.7359999999999997E-2</v>
+        <v>37.36</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -691,7 +691,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="5">
-        <v>0.20029</v>
+        <v>200.29</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -699,7 +699,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="5">
-        <v>4.8250000000000001E-2</v>
+        <v>48.25</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -707,7 +707,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="5">
-        <v>0.17161000000000001</v>
+        <v>171.61</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -715,7 +715,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="5">
-        <v>1.11056</v>
+        <v>1110.56</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -723,7 +723,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="5">
-        <v>1.20424</v>
+        <v>1204.24</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -731,7 +731,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5">
-        <v>1.01</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -739,7 +739,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5">
-        <v>0.82574000000000003</v>
+        <v>825.74</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -747,7 +747,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="5">
-        <v>1.89395</v>
+        <v>1893.95</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -755,7 +755,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="5">
-        <v>4.1456999999999997</v>
+        <v>4145.7</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -763,7 +763,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="5">
-        <v>1.51833</v>
+        <v>1518.33</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -771,7 +771,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="5">
-        <v>2.5511900000000001</v>
+        <v>2551.19</v>
       </c>
     </row>
   </sheetData>
